--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-WebApp-NewsPapers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E39F07-8C28-4DBC-BAE9-26583FF86A6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B78B70-F89A-4AE5-899B-5563774DF1F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05296AFA-3857-4F3D-B4F4-1E1ED9CBED7E}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>MenuIcon</t>
   </si>
@@ -132,6 +132,105 @@
   </si>
   <si>
     <t>https://www.v6velugu.com</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/1.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/3.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/4.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/5.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/6.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/7.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/8.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/9.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/10.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/11.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/12.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/13.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/14.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/15.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/16.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/17.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/18.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/19.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/20.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/21.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/22.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/23.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/24.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/25.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/26.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/27.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/28.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/29.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/30.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/31.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/32.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-WebApp-NewsPapers/master/33.png</t>
   </si>
 </sst>
 </file>
@@ -486,12 +585,12 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -504,166 +603,265 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
       <c r="B22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
       <c r="B24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
       <c r="B25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
       <c r="B26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
       <c r="B27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
       <c r="B28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
       <c r="B29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
       <c r="B30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
       <c r="B32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
       <c r="B33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
       <c r="B34" t="s">
         <v>30</v>
       </c>
